--- a/data/trans_orig/IFINALB_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IFINALB_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D8439CC-C24B-433B-8CDE-4FCECE3B670D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE280408-BAAA-4D66-A8BF-297BF6C7616D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F7572C1B-4BCD-447B-8B03-62AA35F8D94E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D05A48C0-2614-46CD-8FA7-B51E2E08E9B2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="142">
   <si>
     <t>Adulto entrevistado según su cooperación durante la entrevista en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -92,382 +92,373 @@
     <t>8,87%</t>
   </si>
   <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>Excelente</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>Excelente</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
   </si>
   <si>
     <t>12,51%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
   </si>
   <si>
     <t>11,02%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
+    <t>7,95%</t>
   </si>
   <si>
     <t>11,81%</t>
   </si>
   <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
   </si>
   <si>
     <t>85,93%</t>
   </si>
   <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
   </si>
   <si>
     <t>86,92%</t>
   </si>
   <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
   </si>
   <si>
     <t>86,4%</t>
   </si>
   <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
+    <t>83,55%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>2,52%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
+    <t>2,07%</t>
   </si>
   <si>
     <t>13,54%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
   </si>
   <si>
     <t>13,3%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
   </si>
   <si>
     <t>13,43%</t>
   </si>
   <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
+    <t>11,9%</t>
   </si>
   <si>
     <t>85,06%</t>
   </si>
   <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
   </si>
   <si>
     <t>85,35%</t>
   </si>
   <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
   </si>
   <si>
     <t>85,2%</t>
   </si>
   <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -882,7 +873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A575C2-E468-401F-A309-D0EB28459BEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4B18A1-CF82-4781-88E8-6723B7BF3DD5}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1490,7 +1481,7 @@
         <v>77</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="M13" s="7">
         <v>75</v>
@@ -1499,13 +1490,13 @@
         <v>59132</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1520,13 +1511,13 @@
         <v>165407</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>196</v>
@@ -1535,13 +1526,13 @@
         <v>148553</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>395</v>
@@ -1550,13 +1541,13 @@
         <v>313960</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1612,7 +1603,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1624,10 +1615,10 @@
         <v>4491</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>93</v>
@@ -1696,7 +1687,7 @@
         <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="M17" s="7">
         <v>89</v>
@@ -1705,13 +1696,13 @@
         <v>64815</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1726,13 +1717,13 @@
         <v>248712</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>295</v>
@@ -1741,13 +1732,13 @@
         <v>225493</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>583</v>
@@ -1756,13 +1747,13 @@
         <v>474205</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1830,13 +1821,13 @@
         <v>10143</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -1845,13 +1836,13 @@
         <v>8789</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -1860,13 +1851,13 @@
         <v>18932</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,13 +1872,13 @@
         <v>98254</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H21" s="7">
         <v>132</v>
@@ -1896,13 +1887,13 @@
         <v>86688</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M21" s="7">
         <v>272</v>
@@ -1911,13 +1902,13 @@
         <v>184942</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,13 +1923,13 @@
         <v>617307</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H22" s="7">
         <v>798</v>
@@ -1947,13 +1938,13 @@
         <v>556207</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>1623</v>
@@ -1962,13 +1953,13 @@
         <v>1173513</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2024,7 +2015,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IFINALB_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IFINALB_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE280408-BAAA-4D66-A8BF-297BF6C7616D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA2782F6-BE49-45F8-ADDE-EBF46F94A7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D05A48C0-2614-46CD-8FA7-B51E2E08E9B2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3D75E380-DC89-407E-AC4B-8999DF1CE880}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="143">
   <si>
     <t>Adulto entrevistado según su cooperación durante la entrevista en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -77,388 +77,391 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,74%</t>
+  </si>
+  <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
     <t>0,85%</t>
   </si>
   <si>
     <t>Buena</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>Excelente</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>Excelente</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -873,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4B18A1-CF82-4781-88E8-6723B7BF3DD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA44A34-4160-4345-AC27-F5C9840F0F7E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1042,10 +1045,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>5190</v>
+        <v>6228</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1057,10 +1060,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>6289</v>
+        <v>5264</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>20</v>
@@ -1075,7 +1078,7 @@
         <v>24</v>
       </c>
       <c r="N5" s="7">
-        <v>11479</v>
+        <v>11492</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>23</v>
@@ -1093,10 +1096,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D6" s="7">
-        <v>53313</v>
+        <v>51283</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
@@ -1108,10 +1111,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="I6" s="7">
-        <v>51080</v>
+        <v>56180</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1126,7 +1129,7 @@
         <v>201</v>
       </c>
       <c r="N6" s="7">
-        <v>104392</v>
+        <v>107463</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>33</v>
@@ -1144,25 +1147,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>109</v>
+      </c>
+      <c r="D7" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>116</v>
       </c>
-      <c r="D7" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>109</v>
-      </c>
       <c r="I7" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -1177,7 +1180,7 @@
         <v>225</v>
       </c>
       <c r="N7" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -1197,31 +1200,31 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>1147</v>
+        <v>2305</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1305</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="7">
-        <v>4</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2444</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>42</v>
@@ -1230,7 +1233,7 @@
         <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>3591</v>
+        <v>3610</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>43</v>
@@ -1248,10 +1251,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" s="7">
-        <v>24277</v>
+        <v>24775</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>46</v>
@@ -1263,10 +1266,10 @@
         <v>48</v>
       </c>
       <c r="H9" s="7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I9" s="7">
-        <v>25239</v>
+        <v>24690</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>49</v>
@@ -1275,22 +1278,22 @@
         <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>84</v>
       </c>
       <c r="N9" s="7">
-        <v>49516</v>
+        <v>49465</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1299,49 +1302,49 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
+        <v>211</v>
+      </c>
+      <c r="D10" s="7">
+        <v>132219</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="7">
         <v>233</v>
       </c>
-      <c r="D10" s="7">
-        <v>149875</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>156558</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="7">
-        <v>211</v>
-      </c>
-      <c r="I10" s="7">
-        <v>131082</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M10" s="7">
         <v>444</v>
       </c>
       <c r="N10" s="7">
-        <v>280956</v>
+        <v>288777</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1350,25 +1353,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>258</v>
+      </c>
+      <c r="D11" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>276</v>
       </c>
-      <c r="D11" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>258</v>
-      </c>
       <c r="I11" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -1383,7 +1386,7 @@
         <v>534</v>
       </c>
       <c r="N11" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -1397,55 +1400,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>848</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="7">
         <v>5</v>
       </c>
-      <c r="D12" s="7">
-        <v>4505</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="I12" s="7">
+        <v>4182</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>993</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
       </c>
       <c r="N12" s="7">
-        <v>5498</v>
+        <v>5030</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1454,40 +1457,40 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
+        <v>36</v>
+      </c>
+      <c r="D13" s="7">
+        <v>26734</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="7">
         <v>39</v>
       </c>
-      <c r="D13" s="7">
-        <v>32565</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>35465</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="7">
-        <v>36</v>
-      </c>
-      <c r="I13" s="7">
-        <v>26567</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M13" s="7">
         <v>75</v>
       </c>
       <c r="N13" s="7">
-        <v>59132</v>
+        <v>62199</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>78</v>
@@ -1505,10 +1508,10 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D14" s="7">
-        <v>165407</v>
+        <v>145490</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>81</v>
@@ -1520,10 +1523,10 @@
         <v>83</v>
       </c>
       <c r="H14" s="7">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I14" s="7">
-        <v>148553</v>
+        <v>172843</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>84</v>
@@ -1538,7 +1541,7 @@
         <v>395</v>
       </c>
       <c r="N14" s="7">
-        <v>313960</v>
+        <v>318334</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>87</v>
@@ -1556,25 +1559,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>233</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>243</v>
       </c>
-      <c r="D15" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7">
-        <v>233</v>
-      </c>
       <c r="I15" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -1589,7 +1592,7 @@
         <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -1609,10 +1612,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>4491</v>
+        <v>4958</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>91</v>
@@ -1624,10 +1627,10 @@
         <v>93</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>5351</v>
+        <v>4570</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>94</v>
@@ -1642,16 +1645,16 @@
         <v>11</v>
       </c>
       <c r="N16" s="7">
-        <v>9843</v>
+        <v>9528</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1660,49 +1663,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>40</v>
+      </c>
+      <c r="D17" s="7">
+        <v>26759</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="7">
         <v>49</v>
       </c>
-      <c r="D17" s="7">
-        <v>36221</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>36540</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="7">
-        <v>40</v>
-      </c>
-      <c r="I17" s="7">
-        <v>28594</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M17" s="7">
         <v>89</v>
       </c>
       <c r="N17" s="7">
-        <v>64815</v>
+        <v>63299</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>105</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1711,49 +1714,49 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>295</v>
+      </c>
+      <c r="D18" s="7">
+        <v>242550</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="7">
         <v>288</v>
       </c>
-      <c r="D18" s="7">
-        <v>248712</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="I18" s="7">
+        <v>264374</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H18" s="7">
-        <v>295</v>
-      </c>
-      <c r="I18" s="7">
-        <v>225493</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M18" s="7">
         <v>583</v>
       </c>
       <c r="N18" s="7">
-        <v>474205</v>
+        <v>506923</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1762,25 +1765,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>341</v>
+      </c>
+      <c r="D19" s="7">
+        <v>274267</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
         <v>342</v>
       </c>
-      <c r="D19" s="7">
-        <v>289424</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
-        <v>341</v>
-      </c>
       <c r="I19" s="7">
-        <v>259438</v>
+        <v>305483</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -1795,7 +1798,7 @@
         <v>683</v>
       </c>
       <c r="N19" s="7">
-        <v>548862</v>
+        <v>579750</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -1815,10 +1818,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="7">
-        <v>10143</v>
+        <v>8111</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>116</v>
@@ -1830,10 +1833,10 @@
         <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I20" s="7">
-        <v>8789</v>
+        <v>10057</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>119</v>
@@ -1848,16 +1851,16 @@
         <v>23</v>
       </c>
       <c r="N20" s="7">
-        <v>18932</v>
+        <v>18168</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1866,49 +1869,49 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
+        <v>132</v>
+      </c>
+      <c r="D21" s="7">
+        <v>84496</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="7">
         <v>140</v>
       </c>
-      <c r="D21" s="7">
-        <v>98254</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H21" s="7">
-        <v>132</v>
-      </c>
       <c r="I21" s="7">
-        <v>86688</v>
+        <v>101960</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M21" s="7">
         <v>272</v>
       </c>
       <c r="N21" s="7">
-        <v>184942</v>
+        <v>186456</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1917,49 +1920,49 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
+        <v>798</v>
+      </c>
+      <c r="D22" s="7">
+        <v>571543</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="7">
         <v>825</v>
       </c>
-      <c r="D22" s="7">
-        <v>617307</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H22" s="7">
-        <v>798</v>
-      </c>
       <c r="I22" s="7">
-        <v>556207</v>
+        <v>649956</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M22" s="7">
         <v>1623</v>
       </c>
       <c r="N22" s="7">
-        <v>1173513</v>
+        <v>1221498</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1968,25 +1971,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>941</v>
+      </c>
+      <c r="D23" s="7">
+        <v>664150</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>977</v>
       </c>
-      <c r="D23" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="7">
-        <v>941</v>
-      </c>
       <c r="I23" s="7">
-        <v>651684</v>
+        <v>761972</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -2001,7 +2004,7 @@
         <v>1918</v>
       </c>
       <c r="N23" s="7">
-        <v>1377388</v>
+        <v>1426122</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
@@ -2015,7 +2018,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
